--- a/Dokumente/Test-Table.xlsx
+++ b/Dokumente/Test-Table.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>A1</t>
   </si>
@@ -161,13 +161,34 @@
   </si>
   <si>
     <t>A19</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>T26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +236,12 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -270,7 +297,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -284,6 +311,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -594,20 +622,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="AA27" sqref="A1:AA27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.109375" style="6" customWidth="1"/>
-    <col min="2" max="20" width="3.109375" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.88671875" style="1"/>
+    <col min="2" max="27" width="3.109375" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="6" customFormat="1" ht="16.5" customHeight="1">
+    <row r="1" spans="1:27" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>19</v>
@@ -666,17 +694,38 @@
       <c r="T1" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -690,13 +739,20 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -714,18 +770,25 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -738,15 +801,22 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -762,8 +832,15 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -771,10 +848,10 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -786,8 +863,15 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+    </row>
+    <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -796,7 +880,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -810,8 +894,15 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -821,7 +912,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="4"/>
@@ -834,8 +925,15 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+    </row>
+    <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -846,7 +944,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -858,8 +956,15 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -871,7 +976,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -882,8 +987,15 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+    </row>
+    <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -896,7 +1008,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -906,8 +1018,15 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -921,7 +1040,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -930,8 +1049,15 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+    </row>
+    <row r="13" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -946,7 +1072,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="3"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -954,8 +1080,15 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+    </row>
+    <row r="14" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -971,15 +1104,22 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -996,14 +1136,21 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1021,13 +1168,20 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="P16" s="3"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+    </row>
+    <row r="17" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -1046,12 +1200,19 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="3"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
@@ -1071,11 +1232,18 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="R18" s="3"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
@@ -1096,10 +1264,17 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="S19" s="3"/>
       <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+    </row>
+    <row r="20" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
@@ -1121,10 +1296,19 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A21" s="5"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+    </row>
+    <row r="21" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1144,16 +1328,23 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U21" s="3"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+    </row>
+    <row r="22" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1168,13 +1359,20 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U22" s="2"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+    </row>
+    <row r="23" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1192,15 +1390,22 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+    </row>
+    <row r="24" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1216,10 +1421,17 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+    </row>
+    <row r="25" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1240,10 +1452,17 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+    </row>
+    <row r="26" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1264,10 +1483,17 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="1:20" ht="16.5" customHeight="1">
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="2"/>
+    </row>
+    <row r="27" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1288,35 +1514,18 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1326,7 +1535,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1338,7 +1547,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumente/Test-Table.xlsx
+++ b/Dokumente/Test-Table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nino Sargenti\Desktop\NTB\IuK - Webapplikation\MyRapport\MyRapport_GitHub\MyRapport\Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soeld\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="1788" windowWidth="22488" windowHeight="15996"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>A1</t>
   </si>
@@ -148,9 +148,6 @@
     <t>W6</t>
   </si>
   <si>
-    <t>W7</t>
-  </si>
-  <si>
     <t>A16</t>
   </si>
   <si>
@@ -182,13 +179,31 @@
   </si>
   <si>
     <t>T26</t>
+  </si>
+  <si>
+    <t>nur Firefox</t>
+  </si>
+  <si>
+    <t>Mitarbeiter / Chef</t>
+  </si>
+  <si>
+    <t>ACHTUNG!!!</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>JJJJ-MM-TT</t>
+  </si>
+  <si>
+    <t>A20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,8 +258,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +282,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +331,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -312,6 +346,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -622,20 +660,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="AA27" sqref="A1:AA27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="6" customWidth="1"/>
-    <col min="2" max="27" width="3.109375" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.88671875" style="1"/>
+    <col min="1" max="1" width="3.140625" style="6" customWidth="1"/>
+    <col min="2" max="27" width="3.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="35.28515625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>19</v>
@@ -695,32 +734,32 @@
         <v>37</v>
       </c>
       <c r="U1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -746,13 +785,16 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -778,13 +820,13 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -809,14 +851,14 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -840,7 +882,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -848,7 +890,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -871,7 +913,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -880,7 +922,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -902,7 +944,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -912,7 +954,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="4"/>
@@ -933,7 +975,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -944,7 +986,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -964,7 +1006,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -976,7 +1018,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -995,7 +1037,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1008,7 +1050,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1026,7 +1068,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1082,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="8"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1057,7 +1099,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -1088,7 +1130,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1104,7 +1146,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="3"/>
+      <c r="N14" s="8"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1118,8 +1160,11 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-    </row>
-    <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1136,7 +1181,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="3"/>
+      <c r="O15" s="8"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1149,8 +1194,11 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-    </row>
-    <row r="16" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1180,10 +1228,13 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-    </row>
-    <row r="17" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1200,7 +1251,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="8"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -1211,10 +1262,13 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-    </row>
-    <row r="18" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1232,7 +1286,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="3"/>
+      <c r="R18" s="8"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -1243,9 +1297,9 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1264,7 +1318,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="3"/>
+      <c r="S19" s="8"/>
       <c r="T19" s="2"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -1273,10 +1327,13 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
-    </row>
-    <row r="20" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB19" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1296,7 +1353,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="3"/>
+      <c r="T20" s="8"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
@@ -1305,9 +1362,9 @@
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
     </row>
-    <row r="21" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1328,7 +1385,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="3"/>
+      <c r="U21" s="8"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -1336,9 +1393,9 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1360,16 +1417,16 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="3"/>
+      <c r="V22" s="8"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1392,15 +1449,15 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="3"/>
+      <c r="W23" s="8"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1424,14 +1481,14 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-      <c r="X24" s="3"/>
+      <c r="X24" s="8"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1456,13 +1513,13 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="3"/>
+      <c r="Y25" s="11"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1488,12 +1545,12 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="3"/>
+      <c r="Z26" s="10"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1520,7 +1577,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="3"/>
+      <c r="AA27" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1535,7 +1592,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1547,7 +1604,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumente/Test-Table.xlsx
+++ b/Dokumente/Test-Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soeld\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soeld\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>A1</t>
   </si>
@@ -182,18 +182,6 @@
   </si>
   <si>
     <t>nur Firefox</t>
-  </si>
-  <si>
-    <t>Mitarbeiter / Chef</t>
-  </si>
-  <si>
-    <t>ACHTUNG!!!</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>JJJJ-MM-TT</t>
   </si>
   <si>
     <t>A20</t>
@@ -266,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,12 +264,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,11 +313,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,10 +327,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -662,104 +643,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection sqref="A1:AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="5" customWidth="1"/>
     <col min="2" max="27" width="3.140625" style="1" customWidth="1"/>
     <col min="28" max="28" width="35.28515625" style="1" customWidth="1"/>
     <col min="29" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:28" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -789,12 +770,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="8"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -820,13 +801,13 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -851,14 +832,14 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -882,15 +863,15 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -913,8 +894,8 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
@@ -922,7 +903,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -944,20 +925,20 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -975,8 +956,8 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
@@ -986,7 +967,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="8"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1006,8 +987,8 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
@@ -1018,7 +999,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1037,8 +1018,8 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
@@ -1050,7 +1031,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1068,8 +1049,8 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
@@ -1082,7 +1063,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="8"/>
+      <c r="L12" s="7"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -1099,8 +1080,8 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
@@ -1114,7 +1095,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="3"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -1130,8 +1111,8 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2"/>
@@ -1146,7 +1127,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="8"/>
+      <c r="N14" s="7"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1160,12 +1141,9 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    </row>
+    <row r="15" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2"/>
@@ -1181,7 +1159,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="8"/>
+      <c r="O15" s="7"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1194,12 +1172,9 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    </row>
+    <row r="16" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2"/>
@@ -1216,7 +1191,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="3"/>
+      <c r="P16" s="7"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -1228,12 +1203,9 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    </row>
+    <row r="17" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="2"/>
@@ -1251,7 +1223,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="8"/>
+      <c r="Q17" s="7"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -1262,12 +1234,9 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
-      <c r="AB17" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    </row>
+    <row r="18" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="2"/>
@@ -1286,7 +1255,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="8"/>
+      <c r="R18" s="7"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -1297,8 +1266,8 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="2"/>
@@ -1318,21 +1287,19 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="8"/>
+      <c r="S19" s="7"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="8"/>
+    </row>
+    <row r="20" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="2"/>
@@ -1353,18 +1320,18 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-    </row>
-    <row r="21" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>56</v>
+      <c r="T20" s="7"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+    </row>
+    <row r="21" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1385,7 +1352,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="8"/>
+      <c r="U21" s="7"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -1393,8 +1360,8 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="2"/>
@@ -1417,15 +1384,15 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="8"/>
+      <c r="V22" s="7"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="2"/>
@@ -1449,14 +1416,14 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="8"/>
+      <c r="W23" s="7"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="2"/>
@@ -1481,13 +1448,13 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-      <c r="X24" s="8"/>
+      <c r="X24" s="7"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="2"/>
@@ -1513,12 +1480,12 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="11"/>
+      <c r="Y25" s="10"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="2"/>
@@ -1545,11 +1512,11 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="10"/>
+      <c r="Z26" s="9"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="2"/>
@@ -1577,7 +1544,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="10"/>
+      <c r="AA27" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
